--- a/outputs/2025-05-20/cooccurrence_ecosystem_coordination_2025-05-20.xlsx
+++ b/outputs/2025-05-20/cooccurrence_ecosystem_coordination_2025-05-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,1237 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7/30/2021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The broader conversation network this society is now having, governments are now having around the solution sets needed to address the transition, I think, opens the door to a much richer conversation about where ExxonMobil can play and contribute carbon capture and storage, hydrogen, biofuels, other areas potentially where that leverage our strength.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>I think they all recognize that the opportunity for us to take a leadership role in this space and just leveraging the capabilities and advantages we currently have. And so, finding the opportunities that fit well with where we can add the most value is, I think, a very aligned objective amongst the Board, and of course you've heard me talk about that, I mentioned in my opening comments.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>So I think we're - the things are lining up very well within the company, and then I would say more externally in the broader environment. With respect to CapEx in the balance sheet, as you mentioned, I think, again, good alignment around the importance of rebuilding the strength of the balance sheet. Everyone recognizes this is a commodity market with some significant cycles and volatility, and making sure that we've got a balance sheet that we can lean on as we move through that volatile environment and manage the downs, as well as the ups, is a really important foundational piece of our strategy, and I think very good alignment on that.</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>alignment</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>hydrogen, carbon capture and storage</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10/30/2013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Remember we had the whole post Fukushima things and we are going to do hydrogen venting and a whole lot of other issues.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I think itâs seems that its still something thatâs up in the air and there seems there might even be some internal disagreement, but do you have any feel for what if any â whether itâs a small item or not what if any real changes might be brought about by any such I guess coordination of SAMG. Thomas A. Fanning
+Hey, Mark you know what I would rather do here, I would rather gets you on a phone with some of our nuclear guys and talk about that, just talking about that in isolation really doesnât tell the whole story.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I can just tell you looking at the budgets of our nuclear business they do grow, but its nothing thatâs going to way down our ability to deliver financial results if you want a lot of detail I can put you with the right people. Mark Barnett â Morningstar Research
+Thanks and Iâll do that. Thanks.</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>coordination</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>risk, hedged</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2/24/2011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>We had a very different selling model than we're accustomed to.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carl Bass
+So I'm very happy with Moldflow. I think we had not a typical integration issues.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I think we're long past that. I like two parts of it. One is the way it complements our manufacturing portfolio, generally.</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2/23/2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>In addition, we will continue to bolster our existing data to include emerging technologies such as hydrogen and carbon capture and storage.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>This was driven in large part by an enthusiastic reception to our Lens platform which helped our Energy businesses deliver solid annualized contract value growth, resulting from three consecutive quarters of mid-single-digit ACV growth. As we continue to integrate the business for improved strategic and operating coordination and accelerate technology investments, we have an active pipeline of new features and functionalities scheduled to be released during 2022 within our Lens platform, including ongoing development of discovery and valuation capabilities in our power, upstream and subsurface packages.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>These combined efforts should continue to drive increased adoption and uptake by our customers. With just over 10% of our ACV related to Lens, we feel confident in our penetration runway and expect us to support continued sequential growth in 2022. Now let's turn and discuss our portfolio review process.</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>coordination</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>assertive</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>hydrogen, carbon capture and storage</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2/16/2012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>We are very pleased to have the ammonia run that we had this fall.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Is it your sense that it's getting pulled forward from the second quarter into the first as a result of the favorable weather? Stephen R. Wilson
+Kevin, just -- I'll make a general comment, and Bert will follow if he has anything to add.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>It helped us display the strength of our system, which is a fully integrated system from plant to basically to the truck heading off to the retailer or to the farm. And because of the length of the season, we were able to augment the volumes that were in our tanks before the season started and continue to run. And that's a credit to our supply chain people and the coordination that exists from the plant to the supply chain to the sales organization.</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>coordination</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>assertive</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2/18/2011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The extended application window and expectation for robust spring planning drove strong demand and caused supply to be the limiting factor in ammonia sales for the industry.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>We shipped 917,000 tons of ammonia to our customers in the fourth quarter. That's about 200,000 tons more than we shipped on a pro forma combined basis in either 2008 or 2009.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Inventories have not been completely rebuilt after the very strong spring application season by the time the fall window opened. As a result, all producers ran out of product late in the season. We benefited immensely from the integration of new supply points with our distribution network.</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2/18/2011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>This allowed us to move ammonia to the places where it was needed more effectively than we've ever been able to achieve before.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>As a result, all producers ran out of product late in the season. We benefited immensely from the integration of new supply points with our distribution network.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essentially, we were able to move product to pockets of unmet demand until we completely exhausted the available supply from all our end market plants and terminals. Our average realized ammonia price in the fourth quarter was up 15% sequentially. Because we've had back-to-back strong application seasons, the Corn Belt premium over the U.S. Gulf price has remained well above the historical average, finishing the quarter at about $200 per ton.</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11/5/2010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>This enables us to take the day-to-day actions that optimize our business for each major product, such as maximizing the value of our ammonia production, transportation and distribution system.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>We continue to be on track to deliver more than $135 million in annual savings, the top end of our predicted synergy range with a run rate of about $100 million implemented by year end. A good example of our improved coordination is the alignment of product managers and sales with their counterparts in logistics.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>We also have shifted more of our business to deliver pricing rather than FOB plant. This provides better visibility to regional market conditions. Our primary interest in pursuing Terra was expanding our North American production of nitrogen fertilizer.</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>coordination, alignment</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>ammonia, ammonia production</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11/5/2010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Then obviously, as already been mentioned, the agricultural ammonia as related to ag to industrial ammonia and for the spot sales.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>In regards to margin and margin management, that's what we're all about, always looking at the optionality that exists for our business. And that can be expressed in several different areas and in products from urea to a UAN production point, looking at export opportunities relative to domestic, reviewing our network, which we're doing through this acquisition, looking at how we can optimize our freight system and our terminal system.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>So each of those and other components will go into making or creating the options for a super margin on a margin uplift in a rising market. Mark Gulley - Soleil Securities Group, Inc.
+My next question had to do with the integration. Earlier in the prepared remarks, you talked a little bit about getting people together to force opportunities.</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>assertive</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>ammonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10/29/2015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>During the year our GSMR, global supply and manufacturer relations (sic) [Global Sourcing &amp; Manufacturer Relations,] (14:49) business unit, based principally out of Berne, Switzerland, also known as AmerisourceBergen Switzerland, has made important inroads on the brand, specialty, generic and consumer areas to establish an even greater level of professionalism and coordination between suppliers and our customers.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>I believe the true differentiator of our specialty business is our collaborative approach to bringing innovative solutions to both our physician and manufacturer customers. Working in concert with our business partners is the best way to both discover and deliver value in the long run, especially in a marketplace that is increasingly focused on the cost of care.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>This also includes an almost 24/7 communication rhythm with our partners at WBAD. Let's turn now to the other segments. We had a full quarter of MWI in our results and we are very pleased with their performance.</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>coordination</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>smr</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2/16/2017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>The decision support tool is active and UnitedHealthcare has encouraged physicians to use it to become accustomed with it so that at the point where they do implement, the market will be ready.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>So, as you probably know, United has delayed the claim denial application part of BeaconLBS and a postcard went out to physicians, and I'll just comment briefly on that. So, first of all, as you may remember, we had a similar situation in Florida, and so this is sort of part of the normal course of how you change healthcare and change patient and provider behavior, there's a lot of learning, there's a lot of detail, and we're always trying to accommodate the balance between what needs to be done and what the marketplace needs to get what needs to be done, done.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>We have 98% of Texas physicians registered and 89% of the Texas labs within the network are registered, and we continue to enhance the platform with things like EMR integration and new tools and capabilities. I do want to comment editorially that the need for this type of tool is great, and as you probably have seen, it was probably reported that UnitedHealthcare sued a toxicology lab in Texas that was charging 3 to 10 times the amount of network providers and 2 to 3 times the amount that out-of-network providers charge, which meant that it was charging the customer between $1,400 and $6,500 for toxicology panels that were available from network providers for vastly lower amounts. This generates unnecessary cost for the system and it generates unnecessary out-of-pocket cost for patients who are paying co-payments and deductibles.</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>ccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11/3/2020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>The first example is focus on how we're leveraging a differentiated compression technology to penetrate the Hydrogen Refueling and Dispensing Niche market, which is a high growth and rapidly changing market.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>And as we continue to mail complementary cultures, as well as leverage our deep portfolio to serve niche end markets and accelerate growth. Well speaking about growth, let's turn to Slide 7 to showcase a few examples.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>A part of integration planning process, we did a lot of work to better understand these end markets, and the potential it could bring to our combined company. Haskel with over 70 years of industry experience is one of the world leaders in offering the most reliable high-pressure equipment and technology today. We're very excited about Haskel's comprehensive portfolio of specialized compression solutions.</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8/6/2018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>This win demonstrates the technical expertise and differentiation that CH2M brings to Jacobs.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Our nuclear strength positions us well to capture incremental opportunities during the upcoming DOE nuclear procurement cycle. Within our Environmental business, we were awarded a contract to provide the Defense Threat Reduction Agency solutions for sustainable chemical, biological and other threat reduction capabilities.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>While CH2M integration growth synergies are a clear focus at this time, I'm pleased to also note that our previous acquisitions in the cybersecurity and analytics market such as Blue Canopy and Van Dyke are also driving revenue synergies. For example, across all of Jacobs, our commercial, private and other public clients are seeking ATEN's unique and deep expertise in areas such as at-scale network vulnerability assessments, cloud-based security operations management and organically developed software solutions to solve many complex cyber and AI initiatives. In summary, the ATEN business is executing well against its strategy and positioned to deliver a double-digit year-over-year profit increase in fiscal 2018 with continued strong growth into 2019.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8/6/2018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>While CH2M integration growth synergies are a clear focus at this time, I'm pleased to also note that our previous acquisitions in the cybersecurity and analytics market such as Blue Canopy and Van Dyke are also driving revenue synergies.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Within our Environmental business, we were awarded a contract to provide the Defense Threat Reduction Agency solutions for sustainable chemical, biological and other threat reduction capabilities. This win demonstrates the technical expertise and differentiation that CH2M brings to Jacobs.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>For example, across all of Jacobs, our commercial, private and other public clients are seeking ATEN's unique and deep expertise in areas such as at-scale network vulnerability assessments, cloud-based security operations management and organically developed software solutions to solve many complex cyber and AI initiatives. In summary, the ATEN business is executing well against its strategy and positioned to deliver a double-digit year-over-year profit increase in fiscal 2018 with continued strong growth into 2019. Now on to Slide 8 to discuss our Buildings, Infrastructure and Advanced Facilities line of business, which posted another solid quarter of results.</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>h2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FMC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2/9/2011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>prepared</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>In our core markets, hydrogen peroxide and persulfate demand is expected to grow modestly by 1% to 2% in 2011, driven by general economic improvements.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2011 begins a new chapter for peroxygens with its globalization, following the combination of our European, North American and Asian JV operating units announced at our last conference call. The integration provides for the achievement of significant synergies in technology, marketing, supply chain and market access.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>In specialty markets, many of which we do not compete with like-and-kind technologies, we see robust growth, particularly in environmental, food safety, electronics and oil field, where our products offer customers unique quality, performance and/or technology with an incremental benefit of meeting sustainability goals of being green in nature for end users. Prices in 2011 are expected to be higher across peroxygens product lines, driven by more balanced supply-demand dynamics. We expect to benefit further from continued manufacturing cost reductions and realignment projects across our plant network.</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>alignment, integration</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1/29/2019</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qa</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>And then the hydrogen reference, we do not have the need for it internally.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>When we think of the three sources that weâll have, it fits there and creates a wide range of operating rate flexibility, much more than we have today when you think about our Asian footprint. So it fits with integration, it fits with future times and therefore requirement for CO and then operating rate flexibility, which we like as a part of our network process as we consider different decisions.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>That would be packaged up in an arrangement with an industrial gas supplier or partner. Kevin McCarthy
+Thank you very much. Chuck Kyrish
+Okay, great.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>integration</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>hydrogen</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
